--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Osmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H2">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I2">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J2">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.819498</v>
+        <v>62.245413</v>
       </c>
       <c r="N2">
-        <v>99.63899600000001</v>
+        <v>124.490826</v>
       </c>
       <c r="O2">
-        <v>0.2618318601265323</v>
+        <v>0.3724206900939814</v>
       </c>
       <c r="P2">
-        <v>0.2055087336120834</v>
+        <v>0.3142670423823846</v>
       </c>
       <c r="Q2">
-        <v>1304.429811441263</v>
+        <v>1.617820529283</v>
       </c>
       <c r="R2">
-        <v>7826.57886864758</v>
+        <v>6.471282117132</v>
       </c>
       <c r="S2">
-        <v>0.1189035066517646</v>
+        <v>9.274013246858537E-05</v>
       </c>
       <c r="T2">
-        <v>0.093325957590613</v>
+        <v>5.21768121528243E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H3">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I3">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J3">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>184.677505</v>
       </c>
       <c r="O3">
-        <v>0.3235309908694582</v>
+        <v>0.3683148178695765</v>
       </c>
       <c r="P3">
-        <v>0.3809034785857257</v>
+        <v>0.4662034557543063</v>
       </c>
       <c r="Q3">
-        <v>1611.810988973253</v>
+        <v>1.599984344151667</v>
       </c>
       <c r="R3">
-        <v>14506.29890075927</v>
+        <v>9.59990606491</v>
       </c>
       <c r="S3">
-        <v>0.1469224154245712</v>
+        <v>9.171768891451132E-05</v>
       </c>
       <c r="T3">
-        <v>0.1729765020872974</v>
+        <v>7.740235804393549E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H4">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I4">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J4">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.158406</v>
+        <v>43.0359755</v>
       </c>
       <c r="N4">
-        <v>72.316812</v>
+        <v>86.071951</v>
       </c>
       <c r="O4">
-        <v>0.1900344861401527</v>
+        <v>0.2574886553420037</v>
       </c>
       <c r="P4">
-        <v>0.149155823017156</v>
+        <v>0.2172816932940226</v>
       </c>
       <c r="Q4">
-        <v>946.7398230427099</v>
+        <v>1.1185480392205</v>
       </c>
       <c r="R4">
-        <v>5680.438938256259</v>
+        <v>4.474192156882</v>
       </c>
       <c r="S4">
-        <v>0.08629876736891655</v>
+        <v>6.411977809167712E-05</v>
       </c>
       <c r="T4">
-        <v>0.06773488293479327</v>
+        <v>3.607462624558454E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H5">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I5">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J5">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>42.64305566666667</v>
+        <v>0.159175</v>
       </c>
       <c r="N5">
-        <v>127.929167</v>
+        <v>0.477525</v>
       </c>
       <c r="O5">
-        <v>0.2241152768476832</v>
+        <v>0.0009523603505644583</v>
       </c>
       <c r="P5">
-        <v>0.2638581494961946</v>
+        <v>0.001205473320689897</v>
       </c>
       <c r="Q5">
-        <v>1116.528172615254</v>
+        <v>0.004137117425</v>
       </c>
       <c r="R5">
-        <v>10048.75355353728</v>
+        <v>0.02482270455</v>
       </c>
       <c r="S5">
-        <v>0.1017755910168558</v>
+        <v>2.371566011729583E-07</v>
       </c>
       <c r="T5">
-        <v>0.1198236884486918</v>
+        <v>2.001411109865833E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>26.18311833333333</v>
+        <v>0.025991</v>
       </c>
       <c r="H6">
-        <v>78.54935499999999</v>
+        <v>0.051982</v>
       </c>
       <c r="I6">
-        <v>0.4541216129859196</v>
+        <v>0.0002490198180052299</v>
       </c>
       <c r="J6">
-        <v>0.4541216129859196</v>
+        <v>0.0001660269933407085</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09273633333333335</v>
+        <v>0.1376336666666667</v>
       </c>
       <c r="N6">
-        <v>0.278209</v>
+        <v>0.412901</v>
       </c>
       <c r="O6">
-        <v>0.0004873860161734431</v>
+        <v>0.0008234763438739657</v>
       </c>
       <c r="P6">
-        <v>0.0005738152888401658</v>
+        <v>0.001042335248596784</v>
       </c>
       <c r="Q6">
-        <v>2.428126389466111</v>
+        <v>0.003577236630333334</v>
       </c>
       <c r="R6">
-        <v>21.853137505195</v>
+        <v>0.021463419782</v>
       </c>
       <c r="S6">
-        <v>0.0002213325238114655</v>
+        <v>2.05061929283107E-07</v>
       </c>
       <c r="T6">
-        <v>0.0002605819245240775</v>
+        <v>1.730557873775639E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H7">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I7">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J7">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.819498</v>
+        <v>62.245413</v>
       </c>
       <c r="N7">
-        <v>99.63899600000001</v>
+        <v>124.490826</v>
       </c>
       <c r="O7">
-        <v>0.2618318601265323</v>
+        <v>0.3724206900939814</v>
       </c>
       <c r="P7">
-        <v>0.2055087336120834</v>
+        <v>0.3142670423823846</v>
       </c>
       <c r="Q7">
-        <v>7.927162276264666</v>
+        <v>2840.984391675001</v>
       </c>
       <c r="R7">
-        <v>47.562973657588</v>
+        <v>17045.90635005</v>
       </c>
       <c r="S7">
-        <v>0.0007225895821899463</v>
+        <v>0.1628569201936703</v>
       </c>
       <c r="T7">
-        <v>0.0005671520260573991</v>
+        <v>0.1374381517453247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H8">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I8">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J8">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,22 +939,22 @@
         <v>184.677505</v>
       </c>
       <c r="O8">
-        <v>0.3235309908694582</v>
+        <v>0.3683148178695765</v>
       </c>
       <c r="P8">
-        <v>0.3809034785857257</v>
+        <v>0.4662034557543063</v>
       </c>
       <c r="Q8">
-        <v>9.795151227140554</v>
+        <v>2809.663041347223</v>
       </c>
       <c r="R8">
-        <v>88.156361044265</v>
+        <v>25286.967372125</v>
       </c>
       <c r="S8">
-        <v>0.0008928635476404018</v>
+        <v>0.161061451459088</v>
       </c>
       <c r="T8">
-        <v>0.001051197074767548</v>
+        <v>0.2038843806541854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H9">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I9">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J9">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.158406</v>
+        <v>43.0359755</v>
       </c>
       <c r="N9">
-        <v>72.316812</v>
+        <v>86.071951</v>
       </c>
       <c r="O9">
-        <v>0.1900344861401527</v>
+        <v>0.2574886553420037</v>
       </c>
       <c r="P9">
-        <v>0.149155823017156</v>
+        <v>0.2172816932940226</v>
       </c>
       <c r="Q9">
-        <v>5.753441193105999</v>
+        <v>1964.233648445834</v>
       </c>
       <c r="R9">
-        <v>34.520647158636</v>
+        <v>11785.401890675</v>
       </c>
       <c r="S9">
-        <v>0.0005244470244199258</v>
+        <v>0.1125979584625818</v>
       </c>
       <c r="T9">
-        <v>0.0004116322734104229</v>
+        <v>0.09502362738403032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H10">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I10">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J10">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>42.64305566666667</v>
+        <v>0.159175</v>
       </c>
       <c r="N10">
-        <v>127.929167</v>
+        <v>0.477525</v>
       </c>
       <c r="O10">
-        <v>0.2241152768476832</v>
+        <v>0.0009523603505644583</v>
       </c>
       <c r="P10">
-        <v>0.2638581494961946</v>
+        <v>0.001205473320689897</v>
       </c>
       <c r="Q10">
-        <v>6.785263517216777</v>
+        <v>7.265012291666667</v>
       </c>
       <c r="R10">
-        <v>61.067371654951</v>
+        <v>65.385110625</v>
       </c>
       <c r="S10">
-        <v>0.0006185013702361932</v>
+        <v>0.0004164604108551335</v>
       </c>
       <c r="T10">
-        <v>0.0007281816273608915</v>
+        <v>0.0005271886734222986</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1591176666666667</v>
+        <v>45.64166666666667</v>
       </c>
       <c r="H11">
-        <v>0.477353</v>
+        <v>136.925</v>
       </c>
       <c r="I11">
-        <v>0.002759746586380852</v>
+        <v>0.4372928908771768</v>
       </c>
       <c r="J11">
-        <v>0.002759746586380852</v>
+        <v>0.4373291920891176</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09273633333333335</v>
+        <v>0.1376336666666667</v>
       </c>
       <c r="N11">
-        <v>0.278209</v>
+        <v>0.412901</v>
       </c>
       <c r="O11">
-        <v>0.0004873860161734431</v>
+        <v>0.0008234763438739657</v>
       </c>
       <c r="P11">
-        <v>0.0005738152888401658</v>
+        <v>0.001042335248596784</v>
       </c>
       <c r="Q11">
-        <v>0.01475598897522222</v>
+        <v>6.281829936111112</v>
       </c>
       <c r="R11">
-        <v>0.132803900777</v>
+        <v>56.53646942500001</v>
       </c>
       <c r="S11">
-        <v>1.345061894384422E-06</v>
+        <v>0.0003601003509816146</v>
       </c>
       <c r="T11">
-        <v>1.58358478458979E-06</v>
+        <v>0.0004558436321548411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H12">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I12">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J12">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.819498</v>
+        <v>62.245413</v>
       </c>
       <c r="N12">
-        <v>99.63899600000001</v>
+        <v>124.490826</v>
       </c>
       <c r="O12">
-        <v>0.2618318601265323</v>
+        <v>0.3724206900939814</v>
       </c>
       <c r="P12">
-        <v>0.2055087336120834</v>
+        <v>0.3142670423823846</v>
       </c>
       <c r="Q12">
-        <v>1560.067007304727</v>
+        <v>2387.001704647584</v>
       </c>
       <c r="R12">
-        <v>9360.402043828366</v>
+        <v>14322.0102278855</v>
       </c>
       <c r="S12">
-        <v>0.1422057638925778</v>
+        <v>0.1368327637614199</v>
       </c>
       <c r="T12">
-        <v>0.111615623995413</v>
+        <v>0.1154758552919333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H13">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I13">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J13">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>184.677505</v>
       </c>
       <c r="O13">
-        <v>0.3235309908694582</v>
+        <v>0.3683148178695765</v>
       </c>
       <c r="P13">
-        <v>0.3809034785857257</v>
+        <v>0.4662034557543063</v>
       </c>
       <c r="Q13">
-        <v>1927.687579548699</v>
+        <v>2360.685433131502</v>
       </c>
       <c r="R13">
-        <v>17349.18821593829</v>
+        <v>21246.16889818352</v>
       </c>
       <c r="S13">
-        <v>0.1757157118972466</v>
+        <v>0.1353242067476439</v>
       </c>
       <c r="T13">
-        <v>0.2068757794236607</v>
+        <v>0.1713041316237655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H14">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I14">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J14">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.158406</v>
+        <v>43.0359755</v>
       </c>
       <c r="N14">
-        <v>72.316812</v>
+        <v>86.071951</v>
       </c>
       <c r="O14">
-        <v>0.1900344861401527</v>
+        <v>0.2574886553420037</v>
       </c>
       <c r="P14">
-        <v>0.149155823017156</v>
+        <v>0.2172816932940226</v>
       </c>
       <c r="Q14">
-        <v>1132.278294681518</v>
+        <v>1650.353687582917</v>
       </c>
       <c r="R14">
-        <v>6793.669768089108</v>
+        <v>9902.122125497504</v>
       </c>
       <c r="S14">
-        <v>0.1032112717468163</v>
+        <v>0.09460506702451718</v>
       </c>
       <c r="T14">
-        <v>0.08100930780895237</v>
+        <v>0.07983907310865117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.31438633333333</v>
+        <v>38.34823466666666</v>
       </c>
       <c r="H15">
-        <v>93.94315900000001</v>
+        <v>115.044704</v>
       </c>
       <c r="I15">
-        <v>0.5431186404276995</v>
+        <v>0.3674145056948628</v>
       </c>
       <c r="J15">
-        <v>0.5431186404276995</v>
+        <v>0.367445006057708</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>42.64305566666667</v>
+        <v>0.159175</v>
       </c>
       <c r="N15">
-        <v>127.929167</v>
+        <v>0.477525</v>
       </c>
       <c r="O15">
-        <v>0.2241152768476832</v>
+        <v>0.0009523603505644583</v>
       </c>
       <c r="P15">
-        <v>0.2638581494961946</v>
+        <v>0.001205473320689897</v>
       </c>
       <c r="Q15">
-        <v>1335.341119579839</v>
+        <v>6.104080253066665</v>
       </c>
       <c r="R15">
-        <v>12018.07007621856</v>
+        <v>54.9367222776</v>
       </c>
       <c r="S15">
-        <v>0.1217211844605912</v>
+        <v>0.0003499110074460267</v>
       </c>
       <c r="T15">
-        <v>0.1433062794201419</v>
+        <v>0.0004429451516233047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.34823466666666</v>
+      </c>
+      <c r="H16">
+        <v>115.044704</v>
+      </c>
+      <c r="I16">
+        <v>0.3674145056948628</v>
+      </c>
+      <c r="J16">
+        <v>0.367445006057708</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1376336666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.412901</v>
+      </c>
+      <c r="O16">
+        <v>0.0008234763438739657</v>
+      </c>
+      <c r="P16">
+        <v>0.001042335248596784</v>
+      </c>
+      <c r="Q16">
+        <v>5.278008147367111</v>
+      </c>
+      <c r="R16">
+        <v>47.502073326304</v>
+      </c>
+      <c r="S16">
+        <v>0.000302557153835866</v>
+      </c>
+      <c r="T16">
+        <v>0.0003830008817348078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H17">
+        <v>61.07198</v>
+      </c>
+      <c r="I17">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J17">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>62.245413</v>
+      </c>
+      <c r="N17">
+        <v>124.490826</v>
+      </c>
+      <c r="O17">
+        <v>0.3724206900939814</v>
+      </c>
+      <c r="P17">
+        <v>0.3142670423823846</v>
+      </c>
+      <c r="Q17">
+        <v>1267.15020594258</v>
+      </c>
+      <c r="R17">
+        <v>7602.901235655479</v>
+      </c>
+      <c r="S17">
+        <v>0.07263826600642267</v>
+      </c>
+      <c r="T17">
+        <v>0.06130085853297378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H18">
+        <v>61.07198</v>
+      </c>
+      <c r="I18">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J18">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>61.55916833333333</v>
+      </c>
+      <c r="N18">
+        <v>184.677505</v>
+      </c>
+      <c r="O18">
+        <v>0.3683148178695765</v>
+      </c>
+      <c r="P18">
+        <v>0.4662034557543063</v>
+      </c>
+      <c r="Q18">
+        <v>1253.180099089989</v>
+      </c>
+      <c r="R18">
+        <v>11278.6208918099</v>
+      </c>
+      <c r="S18">
+        <v>0.07183744197393016</v>
+      </c>
+      <c r="T18">
+        <v>0.09093754111831147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H19">
+        <v>61.07198</v>
+      </c>
+      <c r="I19">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J19">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.0359755</v>
+      </c>
+      <c r="N19">
+        <v>86.071951</v>
+      </c>
+      <c r="O19">
+        <v>0.2574886553420037</v>
+      </c>
+      <c r="P19">
+        <v>0.2172816932940226</v>
+      </c>
+      <c r="Q19">
+        <v>876.0974116721633</v>
+      </c>
+      <c r="R19">
+        <v>5256.58447003298</v>
+      </c>
+      <c r="S19">
+        <v>0.05022151007681304</v>
+      </c>
+      <c r="T19">
+        <v>0.0423829181750955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>31.31438633333333</v>
-      </c>
-      <c r="H16">
-        <v>93.94315900000001</v>
-      </c>
-      <c r="I16">
-        <v>0.5431186404276995</v>
-      </c>
-      <c r="J16">
-        <v>0.5431186404276995</v>
-      </c>
-      <c r="K16">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H20">
+        <v>61.07198</v>
+      </c>
+      <c r="I20">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J20">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L20">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>0.09273633333333335</v>
-      </c>
-      <c r="N16">
-        <v>0.278209</v>
-      </c>
-      <c r="O16">
-        <v>0.0004873860161734431</v>
-      </c>
-      <c r="P16">
-        <v>0.0005738152888401658</v>
-      </c>
-      <c r="Q16">
-        <v>2.903981369136778</v>
-      </c>
-      <c r="R16">
-        <v>26.13583232223101</v>
-      </c>
-      <c r="S16">
-        <v>0.0002647084304675932</v>
-      </c>
-      <c r="T16">
-        <v>0.0003116497795314986</v>
+      <c r="M20">
+        <v>0.159175</v>
+      </c>
+      <c r="N20">
+        <v>0.477525</v>
+      </c>
+      <c r="O20">
+        <v>0.0009523603505644583</v>
+      </c>
+      <c r="P20">
+        <v>0.001205473320689897</v>
+      </c>
+      <c r="Q20">
+        <v>3.240377472166666</v>
+      </c>
+      <c r="R20">
+        <v>29.1633972495</v>
+      </c>
+      <c r="S20">
+        <v>0.0001857517756621252</v>
+      </c>
+      <c r="T20">
+        <v>0.0002351393545333076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.35732666666667</v>
+      </c>
+      <c r="H21">
+        <v>61.07198</v>
+      </c>
+      <c r="I21">
+        <v>0.1950435836099552</v>
+      </c>
+      <c r="J21">
+        <v>0.1950597748598338</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1376336666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.412901</v>
+      </c>
+      <c r="O21">
+        <v>0.0008234763438739657</v>
+      </c>
+      <c r="P21">
+        <v>0.001042335248596784</v>
+      </c>
+      <c r="Q21">
+        <v>2.801853512664445</v>
+      </c>
+      <c r="R21">
+        <v>25.21668161398</v>
+      </c>
+      <c r="S21">
+        <v>0.000160613777127202</v>
+      </c>
+      <c r="T21">
+        <v>0.0002033176789197576</v>
       </c>
     </row>
   </sheetData>
